--- a/CoffeeStore/ExcelBill/BL00005.xlsx
+++ b/CoffeeStore/ExcelBill/BL00005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -35,27 +35,24 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>01/05/2022</t>
+    <t>05/05/2022</t>
   </si>
   <si>
     <t>Staff:</t>
   </si>
   <si>
-    <t>Võ Văn Hùng</t>
+    <t>Thiều Việt Hoàng</t>
   </si>
   <si>
     <t>Type:</t>
   </si>
   <si>
-    <t>Spot</t>
+    <t>Take Away</t>
   </si>
   <si>
     <t>Table:</t>
   </si>
   <si>
-    <t>TB002</t>
-  </si>
-  <si>
     <t>Num</t>
   </si>
   <si>
@@ -71,18 +68,15 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Brown Sugar Milk Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Size: S - Status: COLD</t>
+    <t>Carrot Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: L - Status: COLD</t>
   </si>
   <si>
     <t xml:space="preserve"> - Golden Pearl</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Brown Sugar Pearl</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Konjac Caramel Jelly</t>
   </si>
   <si>
@@ -95,16 +89,13 @@
     <t xml:space="preserve"> - Pudding</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Red Bean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Cookies</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
-    <t>Peach Tea</t>
+    <t>Orange Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: M - Status: COLD</t>
   </si>
   <si>
     <t>Total:</t>
@@ -651,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="10"/>
     </row>
@@ -740,294 +731,255 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="F12" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="G12" t="s" s="6">
         <v>16</v>
-      </c>
-      <c r="G12" t="s" s="6">
-        <v>17</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>19</v>
-      </c>
       <c r="F13" t="n" s="7">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>77000.0</v>
+        <v>267000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="13"/>
       <c r="B15" t="s" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G15" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="13"/>
       <c r="B16" t="s" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n" s="8">
-        <v>8000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
       <c r="B17" t="s" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" t="n" s="8">
-        <v>8000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="13"/>
       <c r="B18" t="s" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="13"/>
       <c r="B19" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="F19" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G19" t="n" s="8">
+        <v>12000.0</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="17">
         <v>25</v>
       </c>
-      <c r="F19" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" t="s" s="8">
+      <c r="B20" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="F20" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n" s="8">
-        <v>6000.0</v>
+      <c r="F20" t="n" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G20" t="n" s="7">
+        <v>252000.0</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="B21" t="s" s="8">
+      <c r="B21" t="s">
         <v>27</v>
-      </c>
-      <c r="F21" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G21" t="n" s="8">
-        <v>10000.0</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
       <c r="B22" t="s" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n" s="8">
-        <v>8000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="F23" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n" s="7">
-        <v>47000.0</v>
+      <c r="A23" s="13"/>
+      <c r="B23" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G23" t="n" s="8">
+        <v>16000.0</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G24" t="n" s="8">
+        <v>12000.0</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="13"/>
       <c r="B25" t="s" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G25" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="13"/>
       <c r="B26" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" t="n" s="8">
-        <v>8000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="13"/>
-      <c r="B27" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="F27" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n" s="8">
-        <v>6000.0</v>
-      </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="13"/>
-      <c r="B28" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="F28" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G28" t="n" s="8">
-        <v>6000.0</v>
+      <c r="F28" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H28" t="n" s="9">
+        <v>519000.0</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
-      <c r="B29" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="F29" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G29" t="n" s="8">
-        <v>6000.0</v>
+      <c r="F29" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="H29" t="n" s="9">
+        <v>0.0</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
+      <c r="F30" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="H30" t="n" s="9">
+        <v>0.0</v>
+      </c>
       <c r="I30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
-      <c r="F31" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="H31" t="n" s="9">
-        <v>124000.0</v>
-      </c>
       <c r="I31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
-      <c r="F32" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="H32" t="n" s="9">
-        <v>0.0</v>
+      <c r="C32" t="s" s="6">
+        <v>31</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
-      <c r="F33" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="H33" t="n" s="9">
-        <v>0.0</v>
+      <c r="C33" t="s" s="6">
+        <v>32</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13"/>
-      <c r="C35" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13"/>
-      <c r="C36" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1059,33 +1011,27 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:I24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
     <mergeCell ref="A34:I34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
